--- a/pabi_account_report/xlsx_template/xlsx_report_gl_project.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_gl_project.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
   <si>
     <t xml:space="preserve">Project Report</t>
   </si>
@@ -79,13 +79,13 @@
     <t xml:space="preserve">Project (C)</t>
   </si>
   <si>
+    <t xml:space="preserve">Charge Type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Run By</t>
   </si>
   <si>
     <t xml:space="preserve">Run Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge Type</t>
   </si>
   <si>
     <t xml:space="preserve">Fund Rule - Expense Group</t>
@@ -419,12 +419,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -434,7 +434,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BJ21"/>
+  <dimension ref="A1:BJ22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -852,6 +852,10 @@
       <c r="BE19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="8"/>
       <c r="C20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -866,190 +870,204 @@
       <c r="BE20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="12" t="s">
+      <c r="C21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BE21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C22" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D22" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E22" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G22" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H22" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I22" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J22" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="K22" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L21" s="12" t="s">
+      <c r="L22" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M21" s="12" t="s">
+      <c r="M22" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="N21" s="12" t="s">
+      <c r="N22" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="O21" s="12" t="s">
+      <c r="O22" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="P21" s="12" t="s">
+      <c r="P22" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="Q21" s="12" t="s">
+      <c r="Q22" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="R21" s="12" t="s">
+      <c r="R22" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="S21" s="12" t="s">
+      <c r="S22" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="T21" s="12" t="s">
+      <c r="T22" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="U21" s="12" t="s">
+      <c r="U22" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="V21" s="12" t="s">
+      <c r="V22" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="W21" s="12" t="s">
+      <c r="W22" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="X21" s="12" t="s">
+      <c r="X22" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="Y21" s="12" t="s">
+      <c r="Y22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="Z21" s="12" t="s">
+      <c r="Z22" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AA21" s="12" t="s">
+      <c r="AA22" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AB21" s="12" t="s">
+      <c r="AB22" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AC21" s="12" t="s">
+      <c r="AC22" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AD21" s="12" t="s">
+      <c r="AD22" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AE21" s="12" t="s">
+      <c r="AE22" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AF21" s="12" t="s">
+      <c r="AF22" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AG21" s="12" t="s">
+      <c r="AG22" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="AH21" s="12" t="s">
+      <c r="AH22" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AI21" s="12" t="s">
+      <c r="AI22" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AJ21" s="12" t="s">
+      <c r="AJ22" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AK21" s="12" t="s">
+      <c r="AK22" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="AL21" s="12" t="s">
+      <c r="AL22" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AM21" s="12" t="s">
+      <c r="AM22" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AN21" s="12" t="s">
+      <c r="AN22" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="AO21" s="12" t="s">
+      <c r="AO22" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AP21" s="12" t="s">
+      <c r="AP22" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AQ21" s="12" t="s">
+      <c r="AQ22" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="AR21" s="12" t="s">
+      <c r="AR22" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AS21" s="12" t="s">
+      <c r="AS22" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AT21" s="12" t="s">
+      <c r="AT22" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AU21" s="12" t="s">
+      <c r="AU22" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AV21" s="12" t="s">
+      <c r="AV22" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="AW21" s="12" t="s">
+      <c r="AW22" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="AX21" s="12" t="s">
+      <c r="AX22" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="AY21" s="12" t="s">
+      <c r="AY22" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="AZ21" s="12" t="s">
+      <c r="AZ22" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="BA21" s="12" t="s">
+      <c r="BA22" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="BB21" s="12" t="s">
+      <c r="BB22" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="BC21" s="12" t="s">
+      <c r="BC22" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="BD21" s="12" t="s">
+      <c r="BD22" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="BE21" s="12" t="s">
+      <c r="BE22" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="BF21" s="12" t="s">
+      <c r="BF22" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="BG21" s="12" t="s">
+      <c r="BG22" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="BH21" s="12" t="s">
+      <c r="BH22" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="BI21" s="12" t="s">
+      <c r="BI22" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="BJ21" s="13" t="s">
+      <c r="BJ22" s="13" t="s">
         <v>79</v>
       </c>
     </row>
